--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Igf2</t>
+  </si>
+  <si>
+    <t>Insr</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Igf2</t>
-  </si>
-  <si>
-    <t>Insr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H2">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I2">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J2">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N2">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O2">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P2">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q2">
-        <v>268.4792201938825</v>
+        <v>141.203623829541</v>
       </c>
       <c r="R2">
-        <v>1073.91688077553</v>
+        <v>564.8144953181639</v>
       </c>
       <c r="S2">
-        <v>0.02223153296351048</v>
+        <v>0.06900918385985531</v>
       </c>
       <c r="T2">
-        <v>0.01720043729922993</v>
+        <v>0.0523190344268761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H3">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I3">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J3">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P3">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q3">
-        <v>47.45182780768467</v>
+        <v>31.935045189944</v>
       </c>
       <c r="R3">
-        <v>284.710966846108</v>
+        <v>191.610271139664</v>
       </c>
       <c r="S3">
-        <v>0.003929268244013628</v>
+        <v>0.01560732894324329</v>
       </c>
       <c r="T3">
-        <v>0.004560085814186223</v>
+        <v>0.01774895024011745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H4">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I4">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J4">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N4">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O4">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P4">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q4">
-        <v>109.834368139254</v>
+        <v>68.60257767194</v>
       </c>
       <c r="R4">
-        <v>659.006208835524</v>
+        <v>411.61546603164</v>
       </c>
       <c r="S4">
-        <v>0.009094880319046043</v>
+        <v>0.03352752406367404</v>
       </c>
       <c r="T4">
-        <v>0.01055500214010319</v>
+        <v>0.03812813572678056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H5">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I5">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J5">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N5">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O5">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P5">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q5">
-        <v>127.4503843405788</v>
+        <v>72.470079900348</v>
       </c>
       <c r="R5">
-        <v>509.8015373623151</v>
+        <v>289.880319601392</v>
       </c>
       <c r="S5">
-        <v>0.01055358183264054</v>
+        <v>0.03541765382890441</v>
       </c>
       <c r="T5">
-        <v>0.008165258909161687</v>
+        <v>0.02685175140973642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H6">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I6">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J6">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N6">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O6">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P6">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q6">
-        <v>131.3663231960658</v>
+        <v>150.623627009128</v>
       </c>
       <c r="R6">
-        <v>788.197939176395</v>
+        <v>903.7417620547679</v>
       </c>
       <c r="S6">
-        <v>0.01087784277054845</v>
+        <v>0.07361293774201697</v>
       </c>
       <c r="T6">
-        <v>0.01262420721275503</v>
+        <v>0.08371402779830267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H7">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I7">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J7">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N7">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O7">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P7">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q7">
-        <v>141.6100690322542</v>
+        <v>50.66134091603001</v>
       </c>
       <c r="R7">
-        <v>849.660414193525</v>
+        <v>303.96804549618</v>
       </c>
       <c r="S7">
-        <v>0.01172608038485091</v>
+        <v>0.02475926392711823</v>
       </c>
       <c r="T7">
-        <v>0.01360862366687035</v>
+        <v>0.0281567041370396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>4.27412</v>
       </c>
       <c r="I8">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J8">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N8">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O8">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P8">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q8">
-        <v>28.92911764926667</v>
+        <v>22.60766781219333</v>
       </c>
       <c r="R8">
-        <v>173.5747058956</v>
+        <v>135.64600687316</v>
       </c>
       <c r="S8">
-        <v>0.002395487561981525</v>
+        <v>0.01104884324057828</v>
       </c>
       <c r="T8">
-        <v>0.002780066966945819</v>
+        <v>0.01256495391370474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>4.27412</v>
       </c>
       <c r="I9">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J9">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P9">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q9">
         <v>5.113019578684444</v>
@@ -1013,10 +1013,10 @@
         <v>46.01717620816</v>
       </c>
       <c r="S9">
-        <v>0.0004233857027166222</v>
+        <v>0.002498840317373332</v>
       </c>
       <c r="T9">
-        <v>0.0007370361414604802</v>
+        <v>0.004262592844587219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>4.27412</v>
       </c>
       <c r="I10">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J10">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N10">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O10">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P10">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q10">
-        <v>11.83485021872</v>
+        <v>10.98374280351111</v>
       </c>
       <c r="R10">
-        <v>106.51365196848</v>
+        <v>98.8536852316</v>
       </c>
       <c r="S10">
-        <v>0.0009799896713260715</v>
+        <v>0.00536798635927278</v>
       </c>
       <c r="T10">
-        <v>0.001705980625681942</v>
+        <v>0.009156863720259638</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>4.27412</v>
       </c>
       <c r="I11">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J11">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N11">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O11">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P11">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q11">
-        <v>13.73300756896667</v>
+        <v>11.60295641341333</v>
       </c>
       <c r="R11">
-        <v>82.39804541380001</v>
+        <v>69.61773848048</v>
       </c>
       <c r="S11">
-        <v>0.001137167376444049</v>
+        <v>0.005670609087325793</v>
       </c>
       <c r="T11">
-        <v>0.001319731944892863</v>
+        <v>0.006448724114684306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>4.27412</v>
       </c>
       <c r="I12">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J12">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N12">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O12">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P12">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q12">
-        <v>14.15495700615555</v>
+        <v>24.11587487443555</v>
       </c>
       <c r="R12">
-        <v>127.3946130554</v>
+        <v>217.04287386992</v>
       </c>
       <c r="S12">
-        <v>0.001172107074253902</v>
+        <v>0.01178593578561558</v>
       </c>
       <c r="T12">
-        <v>0.002040421464030492</v>
+        <v>0.02010478428623163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>4.27412</v>
       </c>
       <c r="I13">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J13">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N13">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O13">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P13">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q13">
-        <v>15.25873899811111</v>
+        <v>8.111227851577778</v>
       </c>
       <c r="R13">
-        <v>137.328650983</v>
+        <v>73.00105066420001</v>
       </c>
       <c r="S13">
-        <v>0.001263506199001689</v>
+        <v>0.003964127824470223</v>
       </c>
       <c r="T13">
-        <v>0.002199530422610659</v>
+        <v>0.006762121925973134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H14">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I14">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J14">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N14">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O14">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P14">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q14">
-        <v>3455.94698798658</v>
+        <v>396.5069086395742</v>
       </c>
       <c r="R14">
-        <v>13823.78795194632</v>
+        <v>1586.027634558297</v>
       </c>
       <c r="S14">
-        <v>0.2861711209086679</v>
+        <v>0.1937812742896952</v>
       </c>
       <c r="T14">
-        <v>0.2214093121746938</v>
+        <v>0.1469144915760165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H15">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I15">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J15">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P15">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q15">
-        <v>610.814502768592</v>
+        <v>89.675220097862</v>
       </c>
       <c r="R15">
-        <v>3664.887016611552</v>
+        <v>538.051320587172</v>
       </c>
       <c r="S15">
-        <v>0.0505787477447375</v>
+        <v>0.04382616807963028</v>
       </c>
       <c r="T15">
-        <v>0.05869882526892223</v>
+        <v>0.04983994886563441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H16">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I16">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J16">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N16">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O16">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P16">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q16">
-        <v>1413.821723238576</v>
+        <v>192.639503574245</v>
       </c>
       <c r="R16">
-        <v>8482.930339431454</v>
+        <v>1155.83702144547</v>
       </c>
       <c r="S16">
-        <v>0.1170720930357566</v>
+        <v>0.09414698121965007</v>
       </c>
       <c r="T16">
-        <v>0.135867229605104</v>
+        <v>0.1070657311703713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H17">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I17">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J17">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N17">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O17">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P17">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q17">
-        <v>1640.58049468959</v>
+        <v>203.499645199179</v>
       </c>
       <c r="R17">
-        <v>6562.32197875836</v>
+        <v>813.9985807967159</v>
       </c>
       <c r="S17">
-        <v>0.1358489469711854</v>
+        <v>0.09945456108065891</v>
       </c>
       <c r="T17">
-        <v>0.1051057207066892</v>
+        <v>0.07540107437954786</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H18">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I18">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J18">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N18">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O18">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P18">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q18">
-        <v>1690.98766245098</v>
+        <v>422.958753420994</v>
       </c>
       <c r="R18">
-        <v>10145.92597470588</v>
+        <v>2537.752520525964</v>
       </c>
       <c r="S18">
-        <v>0.1400229333634108</v>
+        <v>0.206708847750253</v>
       </c>
       <c r="T18">
-        <v>0.1625026728740227</v>
+        <v>0.2350732188866677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H19">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I19">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J19">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N19">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O19">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P19">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q19">
-        <v>1822.8483053071</v>
+        <v>142.2596044588775</v>
       </c>
       <c r="R19">
-        <v>10937.0898318426</v>
+        <v>853.557626753265</v>
       </c>
       <c r="S19">
-        <v>0.1509417084780306</v>
+        <v>0.06952526382597786</v>
       </c>
       <c r="T19">
-        <v>0.1751743838431898</v>
+        <v>0.07906544755773479</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H20">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I20">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J20">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N20">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O20">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P20">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q20">
-        <v>167.4279486231833</v>
+        <v>0.1606717914946667</v>
       </c>
       <c r="R20">
-        <v>1004.5676917391</v>
+        <v>0.964030748968</v>
       </c>
       <c r="S20">
-        <v>0.01386394059153354</v>
+        <v>7.852368727967534E-05</v>
       </c>
       <c r="T20">
-        <v>0.01608970294061536</v>
+        <v>8.929862523342701E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H21">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I21">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J21">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P21">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q21">
-        <v>29.59172103719555</v>
+        <v>0.03633802577422222</v>
       </c>
       <c r="R21">
-        <v>266.3254893347599</v>
+        <v>0.327042231968</v>
       </c>
       <c r="S21">
-        <v>0.002450354709799658</v>
+        <v>1.77591582549232E-05</v>
       </c>
       <c r="T21">
-        <v>0.004265613999084507</v>
+        <v>3.0294076967231E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H22">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I22">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J22">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N22">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O22">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P22">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q22">
-        <v>68.49447392091999</v>
+        <v>0.07806102107555556</v>
       </c>
       <c r="R22">
-        <v>616.4502652882799</v>
+        <v>0.7025491896799999</v>
       </c>
       <c r="S22">
-        <v>0.005671713265896689</v>
+        <v>3.815006449263708E-05</v>
       </c>
       <c r="T22">
-        <v>0.009873402984901023</v>
+        <v>6.507746445270764E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H23">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I23">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J23">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N23">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O23">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P23">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q23">
-        <v>79.48010421800834</v>
+        <v>0.08246174745066667</v>
       </c>
       <c r="R23">
-        <v>476.88062530805</v>
+        <v>0.494770484704</v>
       </c>
       <c r="S23">
-        <v>0.00658138293008258</v>
+        <v>4.0300792124837E-05</v>
       </c>
       <c r="T23">
-        <v>0.00763797966273255</v>
+        <v>4.583082452239303E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H24">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I24">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J24">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N24">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O24">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P24">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q24">
-        <v>81.92214650729443</v>
+        <v>0.1713905588017778</v>
       </c>
       <c r="R24">
-        <v>737.2993185656499</v>
+        <v>1.542515029216</v>
       </c>
       <c r="S24">
-        <v>0.006783597252715611</v>
+        <v>8.3762174535076E-05</v>
       </c>
       <c r="T24">
-        <v>0.01180898720075542</v>
+        <v>0.0001428838983179162</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H25">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I25">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J25">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N25">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O25">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P25">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q25">
-        <v>88.31031073963887</v>
+        <v>0.0576461721288889</v>
       </c>
       <c r="R25">
-        <v>794.7927966567498</v>
+        <v>0.5188155491600001</v>
       </c>
       <c r="S25">
-        <v>0.007312571836316998</v>
+        <v>2.817289799914545E-05</v>
       </c>
       <c r="T25">
-        <v>0.01272983403976448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J26">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>20.305315</v>
-      </c>
-      <c r="N26">
-        <v>40.61063</v>
-      </c>
-      <c r="O26">
-        <v>0.3249597642811566</v>
-      </c>
-      <c r="P26">
-        <v>0.2578249925194772</v>
-      </c>
-      <c r="Q26">
-        <v>3.594961262613334</v>
-      </c>
-      <c r="R26">
-        <v>21.56976757568</v>
-      </c>
-      <c r="S26">
-        <v>0.0002976822554632578</v>
-      </c>
-      <c r="T26">
-        <v>0.00034547313799232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H27">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J27">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>3.588822666666667</v>
-      </c>
-      <c r="N27">
-        <v>10.766468</v>
-      </c>
-      <c r="O27">
-        <v>0.0574343696616808</v>
-      </c>
-      <c r="P27">
-        <v>0.06835315117153294</v>
-      </c>
-      <c r="Q27">
-        <v>0.6353843052942223</v>
-      </c>
-      <c r="R27">
-        <v>5.718458747648</v>
-      </c>
-      <c r="S27">
-        <v>5.261326041339407E-05</v>
-      </c>
-      <c r="T27">
-        <v>9.158994787950589E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H28">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J28">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>8.306868</v>
-      </c>
-      <c r="N28">
-        <v>24.920604</v>
-      </c>
-      <c r="O28">
-        <v>0.1329404575695912</v>
-      </c>
-      <c r="P28">
-        <v>0.1582136140188136</v>
-      </c>
-      <c r="Q28">
-        <v>1.470692214016</v>
-      </c>
-      <c r="R28">
-        <v>13.236229926144</v>
-      </c>
-      <c r="S28">
-        <v>0.0001217812775657783</v>
-      </c>
-      <c r="T28">
-        <v>0.0002119986630235474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H29">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J29">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>9.6391825</v>
-      </c>
-      <c r="N29">
-        <v>19.278365</v>
-      </c>
-      <c r="O29">
-        <v>0.1542623925343217</v>
-      </c>
-      <c r="P29">
-        <v>0.1223926915665369</v>
-      </c>
-      <c r="Q29">
-        <v>1.706572278773334</v>
-      </c>
-      <c r="R29">
-        <v>10.23943367264</v>
-      </c>
-      <c r="S29">
-        <v>0.0001413134239691413</v>
-      </c>
-      <c r="T29">
-        <v>0.0001640003430607039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H30">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J30">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>9.935348333333332</v>
-      </c>
-      <c r="N30">
-        <v>29.806045</v>
-      </c>
-      <c r="O30">
-        <v>0.1590021357684519</v>
-      </c>
-      <c r="P30">
-        <v>0.1892298476817572</v>
-      </c>
-      <c r="Q30">
-        <v>1.759007057457778</v>
-      </c>
-      <c r="R30">
-        <v>15.83106351712</v>
-      </c>
-      <c r="S30">
-        <v>0.0001456553075231675</v>
-      </c>
-      <c r="T30">
-        <v>0.0002535589301936537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J31">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>10.71009166666667</v>
-      </c>
-      <c r="N31">
-        <v>32.130275</v>
-      </c>
-      <c r="O31">
-        <v>0.1714008801847979</v>
-      </c>
-      <c r="P31">
-        <v>0.203985703041882</v>
-      </c>
-      <c r="Q31">
-        <v>1.896171749155556</v>
-      </c>
-      <c r="R31">
-        <v>17.0655457424</v>
-      </c>
-      <c r="S31">
-        <v>0.0001570132865976999</v>
-      </c>
-      <c r="T31">
-        <v>0.0002733310694467481</v>
+        <v>4.805813024046117E-05</v>
       </c>
     </row>
   </sheetData>
